--- a/ResultadoExcel/ResultadoExcel/wwwroot/docs/plantilla.xlsx
+++ b/ResultadoExcel/ResultadoExcel/wwwroot/docs/plantilla.xlsx
@@ -64,9 +64,6 @@
     <t>Id_Eds_Tipo_Insercion</t>
   </si>
   <si>
-    <t>Z70-2014</t>
-  </si>
-  <si>
     <t>755047</t>
   </si>
   <si>
@@ -86,13 +83,16 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Z70-2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -111,6 +111,11 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -138,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +154,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +459,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -529,26 +535,26 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -563,36 +569,36 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -607,16 +613,17 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>